--- a/table.xlsx
+++ b/table.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B58C811-590B-F44D-9599-69DC6EE8B267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="38">
   <si>
     <t>Б</t>
   </si>
@@ -135,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,7 +331,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -446,21 +457,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C106" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:C107" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Перс Слева" dataDxfId="2"/>
-    <tableColumn id="2" name="Перс Справа" dataDxfId="1"/>
-    <tableColumn id="3" name="Ставка Ф2,5" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Перс Слева" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Перс Справа" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ставка Ф2,5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,7 +509,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -533,6 +544,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -568,9 +596,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,21 +788,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="1" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -768,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -779,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -790,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -801,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -812,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -823,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -834,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -845,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -856,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -867,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -878,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -889,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -900,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -911,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -922,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -933,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -944,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -955,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -966,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -977,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -988,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1021,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -1164,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>27</v>
       </c>
@@ -1241,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -1263,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
@@ -1274,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>31</v>
       </c>
@@ -1285,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -1351,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>27</v>
       </c>
@@ -1373,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
@@ -1384,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
@@ -1395,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -1406,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -1439,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>17</v>
       </c>
@@ -1494,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -1505,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>26</v>
       </c>
@@ -1516,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -1549,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -1560,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
@@ -1571,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>27</v>
       </c>
@@ -1582,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -1626,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
@@ -1637,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -1648,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>33</v>
       </c>
@@ -1659,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1692,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
@@ -1714,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>32</v>
       </c>
@@ -1736,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>34</v>
       </c>
@@ -1769,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -1780,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>30</v>
       </c>
@@ -1791,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -1802,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -1813,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>27</v>
       </c>
@@ -1835,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>31</v>
       </c>
@@ -1846,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>27</v>
       </c>
@@ -1879,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>16</v>
       </c>
@@ -1890,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>11</v>
       </c>
@@ -1920,6 +1965,17 @@
         <v>27</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1933,12 +1989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1946,12 +2002,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
